--- a/team_specific_matrix/Kent St._A.xlsx
+++ b/team_specific_matrix/Kent St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1508379888268156</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C2">
-        <v>0.659217877094972</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0111731843575419</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1005586592178771</v>
+        <v>0.1077586206896552</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0782122905027933</v>
+        <v>0.07327586206896551</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01639344262295082</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C3">
-        <v>0.03278688524590164</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06557377049180328</v>
+        <v>0.06962025316455696</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7295081967213115</v>
+        <v>0.7215189873417721</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1557377049180328</v>
+        <v>0.1582278481012658</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2424242424242424</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0576923076923077</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00641025641025641</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1217948717948718</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2948717948717949</v>
+        <v>0.28125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00641025641025641</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1153846153846154</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="R6">
-        <v>0.05128205128205128</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="S6">
-        <v>0.3461538461538461</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.024</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E7">
-        <v>0.008</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="F7">
-        <v>0.04</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.104</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.168</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="R7">
-        <v>0.08</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="S7">
-        <v>0.448</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08754208754208755</v>
+        <v>0.1002865329512894</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01683501683501683</v>
+        <v>0.02578796561604585</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08417508417508418</v>
+        <v>0.08022922636103152</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1212121212121212</v>
+        <v>0.1232091690544413</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01346801346801347</v>
+        <v>0.01432664756446991</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1582491582491583</v>
+        <v>0.157593123209169</v>
       </c>
       <c r="R8">
-        <v>0.101010101010101</v>
+        <v>0.1002865329512894</v>
       </c>
       <c r="S8">
-        <v>0.4175084175084175</v>
+        <v>0.3982808022922636</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09917355371900827</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02479338842975207</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08264462809917356</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09090909090909091</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008264462809917356</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1487603305785124</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="R9">
-        <v>0.115702479338843</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="S9">
-        <v>0.4297520661157025</v>
+        <v>0.4113924050632912</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053283767038414</v>
+        <v>0.09990108803165183</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02850061957868649</v>
+        <v>0.02571711177052423</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05700123915737298</v>
+        <v>0.05637982195845697</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1263940520446097</v>
+        <v>0.1285855588526212</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01982651796778191</v>
+        <v>0.01879327398615233</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2044609665427509</v>
+        <v>0.2037586547972305</v>
       </c>
       <c r="R10">
-        <v>0.104089219330855</v>
+        <v>0.1078140454995054</v>
       </c>
       <c r="S10">
-        <v>0.3543990086741016</v>
+        <v>0.3590504451038576</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1220930232558139</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05813953488372093</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="K11">
-        <v>0.1627906976744186</v>
+        <v>0.1798245614035088</v>
       </c>
       <c r="L11">
-        <v>0.6337209302325582</v>
+        <v>0.6008771929824561</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7478260869565218</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.208695652173913</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03478260869565217</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008695652173913044</v>
+        <v>0.006896551724137931</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03225806451612903</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2258064516129032</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.025</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1375</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="I15">
-        <v>0.06875000000000001</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="J15">
-        <v>0.3625</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="K15">
-        <v>0.08125</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0125</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2125</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01639344262295082</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1065573770491803</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="I16">
-        <v>0.1229508196721311</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="J16">
-        <v>0.4180327868852459</v>
+        <v>0.4367088607594937</v>
       </c>
       <c r="K16">
-        <v>0.09836065573770492</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03278688524590164</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="N16">
-        <v>0.00819672131147541</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="O16">
-        <v>0.08196721311475409</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1147540983606557</v>
+        <v>0.0949367088607595</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02611940298507463</v>
+        <v>0.02416918429003021</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1902985074626866</v>
+        <v>0.1782477341389728</v>
       </c>
       <c r="I17">
-        <v>0.08582089552238806</v>
+        <v>0.09667673716012085</v>
       </c>
       <c r="J17">
-        <v>0.3694029850746269</v>
+        <v>0.3867069486404834</v>
       </c>
       <c r="K17">
-        <v>0.1119402985074627</v>
+        <v>0.1208459214501511</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01492537313432836</v>
+        <v>0.01208459214501511</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08955223880597014</v>
+        <v>0.08761329305135952</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1119402985074627</v>
+        <v>0.09365558912386707</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0273972602739726</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1780821917808219</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="I18">
-        <v>0.08904109589041095</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.4383561643835616</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K18">
-        <v>0.0684931506849315</v>
+        <v>0.1229946524064171</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="O18">
-        <v>0.07534246575342465</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1095890410958904</v>
+        <v>0.1016042780748663</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01889168765743073</v>
+        <v>0.02063983488132095</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2342569269521411</v>
+        <v>0.2249742002063984</v>
       </c>
       <c r="I19">
-        <v>0.07808564231738035</v>
+        <v>0.08359133126934984</v>
       </c>
       <c r="J19">
-        <v>0.3564231738035264</v>
+        <v>0.3611971104231166</v>
       </c>
       <c r="K19">
-        <v>0.09823677581863979</v>
+        <v>0.09700722394220847</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02770780856423174</v>
+        <v>0.02579979360165119</v>
       </c>
       <c r="N19">
-        <v>0.003778337531486146</v>
+        <v>0.005159958720330237</v>
       </c>
       <c r="O19">
-        <v>0.07304785894206549</v>
+        <v>0.07327141382868937</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095717884130982</v>
+        <v>0.108359133126935</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kent St._A.xlsx
+++ b/team_specific_matrix/Kent St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1551724137931035</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="C2">
-        <v>0.6551724137931034</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008620689655172414</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1077586206896552</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07327586206896551</v>
+        <v>0.07450980392156863</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01265822784810127</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="C3">
-        <v>0.0379746835443038</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06962025316455696</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7215189873417721</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1582278481012658</v>
+        <v>0.1588235294117647</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975609756097561</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6585365853658537</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2439024390243902</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01041666666666667</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1145833333333333</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.28125</v>
+        <v>0.2672811059907834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005208333333333333</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1197916666666667</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="R6">
-        <v>0.05208333333333334</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3502304147465438</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1358024691358025</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01851851851851852</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="E7">
-        <v>0.006172839506172839</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F7">
-        <v>0.04938271604938271</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08024691358024691</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006172839506172839</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.154320987654321</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="R7">
-        <v>0.1049382716049383</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4395604395604396</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1002865329512894</v>
+        <v>0.0960591133004926</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02578796561604585</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08022922636103152</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1232091690544413</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01432664756446991</v>
+        <v>0.01231527093596059</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.157593123209169</v>
+        <v>0.1650246305418719</v>
       </c>
       <c r="R8">
-        <v>0.1002865329512894</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="S8">
-        <v>0.3982808022922636</v>
+        <v>0.3866995073891626</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1012658227848101</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02531645569620253</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0759493670886076</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1139240506329114</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02531645569620253</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1392405063291139</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="R9">
-        <v>0.1075949367088608</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="S9">
-        <v>0.4113924050632912</v>
+        <v>0.4022988505747127</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09990108803165183</v>
+        <v>0.09920983318700614</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02571711177052423</v>
+        <v>0.02458296751536436</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05637982195845697</v>
+        <v>0.05706760316066725</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1285855588526212</v>
+        <v>0.1255487269534679</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01879327398615233</v>
+        <v>0.01755926251097454</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2037586547972305</v>
+        <v>0.2019315188762072</v>
       </c>
       <c r="R10">
-        <v>0.1078140454995054</v>
+        <v>0.1115013169446883</v>
       </c>
       <c r="S10">
-        <v>0.3590504451038576</v>
+        <v>0.3625987708516242</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1403508771929824</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06140350877192982</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="K11">
-        <v>0.1798245614035088</v>
+        <v>0.1706349206349206</v>
       </c>
       <c r="L11">
-        <v>0.6008771929824561</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01754385964912281</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7586206896551724</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1931034482758621</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="L12">
-        <v>0.04137931034482759</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006896551724137931</v>
+        <v>0.006172839506172839</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02857142857142857</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02551020408163265</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1326530612244898</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I15">
-        <v>0.0663265306122449</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="J15">
-        <v>0.3673469387755102</v>
+        <v>0.3681818181818182</v>
       </c>
       <c r="K15">
-        <v>0.07653061224489796</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01020408163265306</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09693877551020408</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2244897959183673</v>
+        <v>0.2227272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01265822784810127</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1139240506329114</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="I16">
-        <v>0.1139240506329114</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="J16">
-        <v>0.4367088607594937</v>
+        <v>0.4375</v>
       </c>
       <c r="K16">
-        <v>0.0949367088607595</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03164556962025317</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="N16">
-        <v>0.01265822784810127</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="O16">
-        <v>0.08860759493670886</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0949367088607595</v>
+        <v>0.1079545454545455</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02416918429003021</v>
+        <v>0.02110817941952507</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1782477341389728</v>
+        <v>0.1846965699208443</v>
       </c>
       <c r="I17">
-        <v>0.09667673716012085</v>
+        <v>0.09498680738786279</v>
       </c>
       <c r="J17">
-        <v>0.3867069486404834</v>
+        <v>0.3931398416886543</v>
       </c>
       <c r="K17">
-        <v>0.1208459214501511</v>
+        <v>0.1134564643799472</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01208459214501511</v>
+        <v>0.01319261213720317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08761329305135952</v>
+        <v>0.0870712401055409</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09365558912386707</v>
+        <v>0.09234828496042216</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03208556149732621</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.160427807486631</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="J18">
-        <v>0.4117647058823529</v>
+        <v>0.4158878504672897</v>
       </c>
       <c r="K18">
-        <v>0.1229946524064171</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0106951871657754</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="N18">
-        <v>0.0053475935828877</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="O18">
-        <v>0.06417112299465241</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1016042780748663</v>
+        <v>0.102803738317757</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02063983488132095</v>
+        <v>0.01914311759343664</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2249742002063984</v>
+        <v>0.2297174111212398</v>
       </c>
       <c r="I19">
-        <v>0.08359133126934984</v>
+        <v>0.0829535095715588</v>
       </c>
       <c r="J19">
-        <v>0.3611971104231166</v>
+        <v>0.3555150410209663</v>
       </c>
       <c r="K19">
-        <v>0.09700722394220847</v>
+        <v>0.097538742023701</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02579979360165119</v>
+        <v>0.02734731084776664</v>
       </c>
       <c r="N19">
-        <v>0.005159958720330237</v>
+        <v>0.004557885141294439</v>
       </c>
       <c r="O19">
-        <v>0.07327141382868937</v>
+        <v>0.07292616226071102</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.108359133126935</v>
+        <v>0.1103008204193254</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kent St._A.xlsx
+++ b/team_specific_matrix/Kent St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1529411764705882</v>
+        <v>0.1611721611721612</v>
       </c>
       <c r="C2">
-        <v>0.6470588235294118</v>
+        <v>0.6336996336996337</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007843137254901961</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1176470588235294</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07450980392156863</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01764705882352941</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C3">
-        <v>0.03529411764705882</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06470588235294118</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7235294117647059</v>
+        <v>0.7231638418079096</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1588235294117647</v>
+        <v>0.1581920903954802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6739130434782609</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2391304347826087</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07834101382488479</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009216589861751152</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1105990783410138</v>
+        <v>0.1082251082251082</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2672811059907834</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004608294930875576</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.119815668202765</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="R6">
-        <v>0.05990783410138249</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.3502304147465438</v>
+        <v>0.3463203463203463</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1208791208791209</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01648351648351648</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="E7">
-        <v>0.005494505494505495</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="F7">
-        <v>0.05494505494505494</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08791208791208792</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005494505494505495</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1648351648351648</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R7">
-        <v>0.1043956043956044</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="S7">
-        <v>0.4395604395604396</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0960591133004926</v>
+        <v>0.09318181818181819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02955665024630542</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08866995073891626</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1280788177339902</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01231527093596059</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1650246305418719</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="R8">
-        <v>0.09359605911330049</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="S8">
-        <v>0.3866995073891626</v>
+        <v>0.3886363636363636</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09195402298850575</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02298850574712644</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07471264367816093</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1206896551724138</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02298850574712644</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1494252873563219</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.1149425287356322</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="S9">
-        <v>0.4022988505747127</v>
+        <v>0.4021164021164021</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09920983318700614</v>
+        <v>0.09877551020408164</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02458296751536436</v>
+        <v>0.0236734693877551</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008163265306122449</v>
       </c>
       <c r="F10">
-        <v>0.05706760316066725</v>
+        <v>0.0563265306122449</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1255487269534679</v>
+        <v>0.1248979591836735</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01755926251097454</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2019315188762072</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="R10">
-        <v>0.1115013169446883</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="S10">
-        <v>0.3625987708516242</v>
+        <v>0.3657142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1388888888888889</v>
+        <v>0.1433691756272401</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06349206349206349</v>
+        <v>0.06810035842293907</v>
       </c>
       <c r="K11">
-        <v>0.1706349206349206</v>
+        <v>0.1684587813620072</v>
       </c>
       <c r="L11">
-        <v>0.6111111111111112</v>
+        <v>0.6057347670250897</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01587301587301587</v>
+        <v>0.01433691756272401</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7530864197530864</v>
+        <v>0.7486033519553073</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1975308641975309</v>
+        <v>0.1955307262569832</v>
       </c>
       <c r="K12">
-        <v>0.006172839506172839</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.03703703703703703</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006172839506172839</v>
+        <v>0.0111731843575419</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02439024390243903</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G13">
-        <v>0.6829268292682927</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2439024390243902</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02727272727272727</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1363636363636364</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="I15">
-        <v>0.06363636363636363</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="J15">
-        <v>0.3681818181818182</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="K15">
-        <v>0.06818181818181818</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00909090909090909</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1045454545454545</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2227272727272727</v>
+        <v>0.2245762711864407</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01136363636363636</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1079545454545455</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="I16">
-        <v>0.1022727272727273</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="J16">
-        <v>0.4375</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="K16">
-        <v>0.09659090909090909</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03409090909090909</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
-        <v>0.01136363636363636</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="O16">
-        <v>0.09090909090909091</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1079545454545455</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02110817941952507</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1846965699208443</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="I17">
-        <v>0.09498680738786279</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J17">
-        <v>0.3931398416886543</v>
+        <v>0.3853658536585366</v>
       </c>
       <c r="K17">
-        <v>0.1134564643799472</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01319261213720317</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0870712401055409</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09234828496042216</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02803738317757009</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1775700934579439</v>
+        <v>0.1746724890829694</v>
       </c>
       <c r="I18">
-        <v>0.08878504672897196</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="J18">
-        <v>0.4158878504672897</v>
+        <v>0.4235807860262009</v>
       </c>
       <c r="K18">
-        <v>0.1168224299065421</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009345794392523364</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="N18">
-        <v>0.004672897196261682</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="O18">
-        <v>0.05607476635514019</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.102803738317757</v>
+        <v>0.1004366812227074</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01914311759343664</v>
+        <v>0.01845637583892618</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2297174111212398</v>
+        <v>0.2315436241610738</v>
       </c>
       <c r="I19">
-        <v>0.0829535095715588</v>
+        <v>0.08305369127516779</v>
       </c>
       <c r="J19">
-        <v>0.3555150410209663</v>
+        <v>0.3540268456375839</v>
       </c>
       <c r="K19">
-        <v>0.097538742023701</v>
+        <v>0.09815436241610738</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02734731084776664</v>
+        <v>0.02768456375838926</v>
       </c>
       <c r="N19">
-        <v>0.004557885141294439</v>
+        <v>0.005033557046979865</v>
       </c>
       <c r="O19">
-        <v>0.07292616226071102</v>
+        <v>0.07130872483221476</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1103008204193254</v>
+        <v>0.1107382550335571</v>
       </c>
     </row>
   </sheetData>
